--- a/BaoCaoCaNhan/Weekly_Report_Tai.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Tai.xlsx
@@ -601,14 +601,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3203,7 +3203,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3242,10 +3242,10 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="11"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3332,13 +3332,13 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="33" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>41099</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3359,13 +3359,13 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="28.5">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>41130</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3424,7 +3424,9 @@
       <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3447,10 +3449,10 @@
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" ht="28.5">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>41131</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3730,8 +3732,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>

--- a/BaoCaoCaNhan/Weekly_Report_Tai.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Tai.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Project</t>
   </si>
@@ -376,10 +376,6 @@
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>Chưa hoàn
- thành</t>
-  </si>
-  <si>
     <t>Crazy</t>
   </si>
   <si>
@@ -419,15 +415,21 @@
     <t>Hoàn chỉnh thông tin về SRS</t>
   </si>
   <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
     <t>Hiện thực
  thêm/xóa sách</t>
   </si>
   <si>
     <t>Hiện thực csdl và chức
  năng thêm/xóa</t>
+  </si>
+  <si>
+    <t>26/10/2012</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh SDD</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh sơ đồ triển khai hệ thống</t>
   </si>
 </sst>
 </file>
@@ -2918,7 +2920,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="535353"/>
+        <a:sysClr val="windowText" lastClr="444444"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3203,14 +3205,14 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
@@ -3231,19 +3233,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="11"/>
       <c r="P1" s="4" t="s">
@@ -3336,13 +3338,13 @@
         <v>41099</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -3351,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3363,13 +3365,13 @@
         <v>41130</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -3408,18 +3410,18 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:29" ht="28.5">
+    <row r="7" spans="1:29">
       <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -3453,18 +3455,20 @@
         <v>41131</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3473,12 +3477,24 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
